--- a/reanalyzed/sex_marker/SexFindR/visualizations/GWAS_maleRef_genotypes.pval5e-3.ped.xlsx
+++ b/reanalyzed/sex_marker/SexFindR/visualizations/GWAS_maleRef_genotypes.pval5e-3.ped.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miocene/Desktop/git_repos/dissertation/reanalyzed/sex_marker/SexFindR/visualizations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12A0E23E-5389-AD4E-BD09-36CD111B8F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1501662E-DB7B-8841-981A-380A7B0D81D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33260" yWindow="-28340" windowWidth="47580" windowHeight="25620"/>
+    <workbookView xWindow="440" yWindow="460" windowWidth="31260" windowHeight="20360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="maleRef_genotypes_sorted" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1102,7 +1113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -5132,14 +5143,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IP53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BT38" sqref="BT38"/>
+    <sheetView tabSelected="1" topLeftCell="FH1" workbookViewId="0">
+      <selection activeCell="GA16" sqref="GA16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
@@ -5147,7 +5158,7 @@
     <col min="4" max="5" width="3.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:250" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:250" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5889,7 +5900,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:250" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>354</v>
       </c>
@@ -6641,7 +6652,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="3" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -7393,7 +7404,7 @@
         <v>6967087</v>
       </c>
     </row>
-    <row r="4" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -8145,7 +8156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -8897,7 +8908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
@@ -9649,7 +9660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -10401,7 +10412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
@@ -11153,7 +11164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
@@ -11905,7 +11916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
@@ -12657,7 +12668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -13409,7 +13420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
@@ -14161,7 +14172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
@@ -14913,7 +14924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>30</v>
       </c>
@@ -15665,7 +15676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>31</v>
       </c>
@@ -16417,7 +16428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
@@ -17169,7 +17180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>44</v>
       </c>
@@ -17921,7 +17932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>45</v>
       </c>
@@ -18673,7 +18684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>46</v>
       </c>
@@ -19425,7 +19436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>47</v>
       </c>
@@ -20177,7 +20188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>48</v>
       </c>
@@ -20929,7 +20940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>49</v>
       </c>
@@ -21681,7 +21692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>50</v>
       </c>
@@ -22433,7 +22444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>51</v>
       </c>
@@ -23185,7 +23196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>52</v>
       </c>
@@ -23937,7 +23948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>62</v>
       </c>
@@ -24689,7 +24700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>63</v>
       </c>
@@ -25441,7 +25452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -25693,7 +25704,7 @@
       <c r="IO28" s="7"/>
       <c r="IP28" s="14"/>
     </row>
-    <row r="29" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>21</v>
       </c>
@@ -26445,7 +26456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>22</v>
       </c>
@@ -27197,7 +27208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>23</v>
       </c>
@@ -27949,7 +27960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>24</v>
       </c>
@@ -28701,7 +28712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>33</v>
       </c>
@@ -29453,7 +29464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>34</v>
       </c>
@@ -30205,7 +30216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>35</v>
       </c>
@@ -30957,7 +30968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>36</v>
       </c>
@@ -31709,7 +31720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>37</v>
       </c>
@@ -32461,7 +32472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>38</v>
       </c>
@@ -33213,7 +33224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>39</v>
       </c>
@@ -33965,7 +33976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>40</v>
       </c>
@@ -34717,7 +34728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>41</v>
       </c>
@@ -35469,7 +35480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>42</v>
       </c>
@@ -36221,7 +36232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
@@ -36973,7 +36984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>53</v>
       </c>
@@ -37725,7 +37736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>54</v>
       </c>
@@ -38477,7 +38488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>55</v>
       </c>
@@ -39229,7 +39240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>56</v>
       </c>
@@ -39981,7 +39992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>57</v>
       </c>
@@ -40733,7 +40744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>58</v>
       </c>
@@ -41485,7 +41496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>59</v>
       </c>
@@ -42237,7 +42248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>60</v>
       </c>
@@ -42989,7 +43000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:250" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:250" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>61</v>
       </c>
@@ -43741,7 +43752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:250" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:250" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E53" s="33"/>
       <c r="F53" s="26" t="s">
         <v>353</v>
